--- a/ig/ch-lab-report/ValueSet-observation-code-entsvol-ratio.xlsx
+++ b/ig/ch-lab-report/ValueSet-observation-code-entsvol-ratio.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -108,16 +108,10 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>21000-5</t>
-  </si>
-  <si>
-    <t>Erythrocyte distribution width [Entitic volume] by Automated count</t>
-  </si>
-  <si>
     <t>788-0</t>
   </si>
   <si>
-    <t>Erythrocyte distribution width [Ratio] by Automated count</t>
+    <t>Erythrocyte [DistWidth] in Red Blood Cells by Automated count</t>
   </si>
   <si>
     <t/>
@@ -403,7 +397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,23 +428,15 @@
         <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-lab-report/ValueSet-observation-code-entsvol-ratio.xlsx
+++ b/ig/ch-lab-report/ValueSet-observation-code-entsvol-ratio.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>788-0</t>
   </si>
   <si>
-    <t>Erythrocyte [DistWidth] in Red Blood Cells by Automated count</t>
+    <t>Erythrocyte [DistWidth] in Blood by Automated count</t>
   </si>
   <si>
     <t/>
